--- a/lab07/1.xlsx
+++ b/lab07/1.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="москва" sheetId="1" r:id="rId2"/>
     <sheet name="Питер" sheetId="3" r:id="rId3"/>
     <sheet name="Чокурдах" sheetId="4" r:id="rId4"/>
+    <sheet name="IP" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="324">
   <si>
     <t>IPv4</t>
   </si>
@@ -127,24 +128,6 @@
     <t>e0/1.3  e1/1</t>
   </si>
   <si>
-    <t>e0/0 e0/3</t>
-  </si>
-  <si>
-    <t>e0/2 e0/0</t>
-  </si>
-  <si>
-    <t>e0/1 e0/3</t>
-  </si>
-  <si>
-    <t>e0/3 e0/1</t>
-  </si>
-  <si>
-    <t>e0/3 e0/0</t>
-  </si>
-  <si>
-    <t>e1/0 e1/0</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -307,9 +290,6 @@
     <t>VPC31</t>
   </si>
   <si>
-    <t>Vlan4</t>
-  </si>
-  <si>
     <t>R28 SW29</t>
   </si>
   <si>
@@ -386,13 +366,637 @@
   </si>
   <si>
     <t>e0/2.4   e0/2</t>
+  </si>
+  <si>
+    <t>200.30.30.0/27</t>
+  </si>
+  <si>
+    <t>R28         R26</t>
+  </si>
+  <si>
+    <t>e0/0         e0/1</t>
+  </si>
+  <si>
+    <t>R28         R25</t>
+  </si>
+  <si>
+    <t>R27         R25</t>
+  </si>
+  <si>
+    <t>e0/1          e0/3</t>
+  </si>
+  <si>
+    <t>e0/0          e0/1</t>
+  </si>
+  <si>
+    <t>Vlan3(sw29)</t>
+  </si>
+  <si>
+    <t>Vlan4(sw29)</t>
+  </si>
+  <si>
+    <t>10.40.2.0/24</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0030:2628::/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0030:2528::/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0040:2527::/64</t>
+  </si>
+  <si>
+    <t>Routers</t>
+  </si>
+  <si>
+    <t>Link-Local</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>e0/0</t>
+  </si>
+  <si>
+    <t>e0/2</t>
+  </si>
+  <si>
+    <t>e0/3</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>e0/1</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>e0/0    e0/3</t>
+  </si>
+  <si>
+    <t>e0/2   e0/0</t>
+  </si>
+  <si>
+    <t>e0/1   e0/3</t>
+  </si>
+  <si>
+    <t>e0/3   e0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0/2   e0/0 </t>
+  </si>
+  <si>
+    <t>e0/3   e0/0</t>
+  </si>
+  <si>
+    <t>e1/0   e1/0</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:2::2/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:3::2/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1214::12/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1215::12/64</t>
+  </si>
+  <si>
+    <t>10.10.2.2/24</t>
+  </si>
+  <si>
+    <t>10.10.3.2/24</t>
+  </si>
+  <si>
+    <t>10.11.2.12/23</t>
+  </si>
+  <si>
+    <t>10.11.6.12/23</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:2::4/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:3::4/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1315::13/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1314::13/64</t>
+  </si>
+  <si>
+    <t>10.10.2.4/24</t>
+  </si>
+  <si>
+    <t>10.10.3.4/24</t>
+  </si>
+  <si>
+    <t>10.11.8.13/23</t>
+  </si>
+  <si>
+    <t>10.11.4.13/23</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1214::14/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1314::14/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1422::14/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1419::14/64</t>
+  </si>
+  <si>
+    <t>100.10.10.14/27</t>
+  </si>
+  <si>
+    <t>10.11.2.14/23</t>
+  </si>
+  <si>
+    <t>10.11.4.14/23</t>
+  </si>
+  <si>
+    <t>10.11.0.14/23</t>
+  </si>
+  <si>
+    <t>100.11.11.15/27</t>
+  </si>
+  <si>
+    <t>10.11.8.15/23</t>
+  </si>
+  <si>
+    <t>10.11.6.15/23</t>
+  </si>
+  <si>
+    <t>10.11.10.15/23</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1315::15/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1215::15/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1521::15/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1520::15/64</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>fe80::12</t>
+  </si>
+  <si>
+    <t>fe80::13</t>
+  </si>
+  <si>
+    <t>fe80::14</t>
+  </si>
+  <si>
+    <t>fe80::15</t>
+  </si>
+  <si>
+    <t>fe80::16</t>
+  </si>
+  <si>
+    <t>fe80::17</t>
+  </si>
+  <si>
+    <t>fe80::18</t>
+  </si>
+  <si>
+    <t>200.20.20.20/27</t>
+  </si>
+  <si>
+    <t>10.20.2.4/24</t>
+  </si>
+  <si>
+    <t>10.20.12.16/24</t>
+  </si>
+  <si>
+    <t>10.20.2.5/24</t>
+  </si>
+  <si>
+    <t>10.20.13.16/24</t>
+  </si>
+  <si>
+    <t>10.20.2.2/24</t>
+  </si>
+  <si>
+    <t>10.20.10.17/23</t>
+  </si>
+  <si>
+    <t>10.20.2.3/24</t>
+  </si>
+  <si>
+    <t>10.20.12.18/24</t>
+  </si>
+  <si>
+    <t>10.20.10.18/24</t>
+  </si>
+  <si>
+    <t>10.20.13.32/24</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:2::4/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:1618::16/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:2::5/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:1632::16/64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001:ABCD:0020:2::2/64 </t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:1718::17/64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001:ABCD:0020:2::3/64 </t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:1618::18/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:1718::18/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:1824::18/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:1826::18/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:1632::32/64</t>
+  </si>
+  <si>
+    <t>fe80::32</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>SW29</t>
+  </si>
+  <si>
+    <t>1.1.3.29</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>200.20.20.30/27</t>
+  </si>
+  <si>
+    <t>fe80::28</t>
+  </si>
+  <si>
+    <t>10.30.3.1/24</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0030:2628::28/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0030:2528::28/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0030:3::1/64</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1::11/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:2::17/64</t>
+  </si>
+  <si>
+    <t>SW9</t>
+  </si>
+  <si>
+    <t>SW10</t>
+  </si>
+  <si>
+    <t>1.1.2.9</t>
+  </si>
+  <si>
+    <t>1.1.2.10</t>
+  </si>
+  <si>
+    <t>192.168.3.18/24</t>
+  </si>
+  <si>
+    <t>192.168.4.19/24</t>
+  </si>
+  <si>
+    <t>192.168.1.11/24</t>
+  </si>
+  <si>
+    <t>192.168.2.17/24</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:3::18/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:4::19/64</t>
+  </si>
+  <si>
+    <t>192.168.5.30/24</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0030:5::30/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0030:6::31/64</t>
+  </si>
+  <si>
+    <t>fe80::27</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>10.11.0.19/23</t>
+  </si>
+  <si>
+    <t>fe80::19</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1419::15/64</t>
+  </si>
+  <si>
+    <t>10.11.10.20/23</t>
+  </si>
+  <si>
+    <t>fe80::20</t>
+  </si>
+  <si>
+    <t>200.30.30.30/27</t>
+  </si>
+  <si>
+    <t>200.30.33.30/27</t>
+  </si>
+  <si>
+    <t>FD00::29/8</t>
+  </si>
+  <si>
+    <t>FD00::9/8</t>
+  </si>
+  <si>
+    <t>FD00::10/8</t>
+  </si>
+  <si>
+    <t>FD00::3/8</t>
+  </si>
+  <si>
+    <t>FD00::4/8</t>
+  </si>
+  <si>
+    <t>FD00::5/8</t>
+  </si>
+  <si>
+    <t>FD00::2/8</t>
+  </si>
+  <si>
+    <t>200.30.33.40/27</t>
+  </si>
+  <si>
+    <t>192.168.5.31/24</t>
+  </si>
+  <si>
+    <t>100.10.10.10/27</t>
+  </si>
+  <si>
+    <t>100.10.10.11/27</t>
+  </si>
+  <si>
+    <t>100.10.10.20/27</t>
+  </si>
+  <si>
+    <t>fe80::22</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>fe80::21</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1521::21/64</t>
+  </si>
+  <si>
+    <t>100.11.11.11/27</t>
+  </si>
+  <si>
+    <t>100.10.10.22/27</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1422::22/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0070:2223::22/64</t>
+  </si>
+  <si>
+    <t>ISP Kitorn (0050)</t>
+  </si>
+  <si>
+    <t>ISP Lamas (0060)</t>
+  </si>
+  <si>
+    <t>MOSKOW (0010)</t>
+  </si>
+  <si>
+    <t>SPB (0020)</t>
+  </si>
+  <si>
+    <t>4ukourdah (0030)</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0040:2527::27/64</t>
+  </si>
+  <si>
+    <t>Labytnangy (0040)</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0060:2122::22/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0050:2122::21/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0070:2124::21/64</t>
+  </si>
+  <si>
+    <t>100.10.10.200/27</t>
+  </si>
+  <si>
+    <t>ISP Triada (0070)</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>fe80::23</t>
+  </si>
+  <si>
+    <t>fe80::24</t>
+  </si>
+  <si>
+    <t>fe80::25</t>
+  </si>
+  <si>
+    <t>fe80::26</t>
+  </si>
+  <si>
+    <t>100.10.10.12/27</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0050:2223::23/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0070:2325::23/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0070:2324::23/64</t>
+  </si>
+  <si>
+    <t>100.10.10.202/27</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0060:2124::24/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0070:2426::24/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0070:2324::24/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:2418::24/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0070:2325::25/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0070:2526::25/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0040:2527::25/64</t>
+  </si>
+  <si>
+    <t>200.30.33.25/27</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0030:2528::25/64</t>
+  </si>
+  <si>
+    <t>100.10.10.205/27</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0030:2628::26/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0070:2426::26/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0070:2526::26/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0020:1826::26/64</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>10.0.0.1/31</t>
+  </si>
+  <si>
+    <t>10.0.0.23/31</t>
+  </si>
+  <si>
+    <t>10.0.0.35/31</t>
+  </si>
+  <si>
+    <t>10.0.0.5/31</t>
+  </si>
+  <si>
+    <t>10.0.0.9/31</t>
+  </si>
+  <si>
+    <t>10.0.0.13/31</t>
+  </si>
+  <si>
+    <t>10.0.0.17/31</t>
+  </si>
+  <si>
+    <t>10.0.0.21/31</t>
+  </si>
+  <si>
+    <t>100.10.10.13/27</t>
+  </si>
+  <si>
+    <t>200.30.33.55/27</t>
+  </si>
+  <si>
+    <t>200.30.30.36/27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,8 +1018,39 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,8 +1069,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -458,11 +1099,757 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -477,17 +1864,287 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,7 +2453,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>42</v>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -942,492 +2599,492 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>60</v>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>36</v>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>37</v>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>38</v>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>39</v>
+      <c r="E19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>37</v>
+      <c r="E20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>40</v>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>41</v>
+      <c r="E22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="A23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>37</v>
+        <v>97</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="A24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>37</v>
+        <v>98</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1620,7 +3277,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -1655,330 +3312,330 @@
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1988,10 +3645,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,7 +3658,7 @@
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2009,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>42</v>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -2025,118 +3682,1329 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="6" t="s">
+    <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="91"/>
+      <c r="B4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="91"/>
+      <c r="B5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="95"/>
+      <c r="B6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="91"/>
+      <c r="B8" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="91"/>
+      <c r="B9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95"/>
+      <c r="B10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78"/>
+      <c r="B12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78"/>
+      <c r="B13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="83"/>
+      <c r="I13" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="78"/>
+      <c r="B14" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="84"/>
+      <c r="I14" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="76"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
+      <c r="B17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="78"/>
+      <c r="B18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="85"/>
+      <c r="I18" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="76"/>
+      <c r="B19" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="86"/>
+      <c r="I19" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="56"/>
+      <c r="H22" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="L22" s="50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="L23" s="46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="H25" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="L26" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="68"/>
+      <c r="I28" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="K28" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="L29" s="50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="98"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="L30" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="93"/>
+      <c r="C31" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="67"/>
+      <c r="I31" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="K31" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="90"/>
+      <c r="I32" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="K32" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="L32" s="63" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="67"/>
+      <c r="B33" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="K33" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" s="50" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="67"/>
+      <c r="B34" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="67"/>
+      <c r="I34" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="K34" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L34" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="68"/>
+      <c r="B35" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="67"/>
+      <c r="I35" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" s="68"/>
+      <c r="I36" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" s="61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
+      <c r="B37" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="68"/>
+      <c r="B38" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="78"/>
+      <c r="B40" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="78"/>
+      <c r="B41" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="76"/>
+      <c r="B42" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="44"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" s="44"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="44"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" s="44"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="93"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="E54" s="44"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55" s="44"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" s="44"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="93"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I4:K6"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="H29:H32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab07/1.xlsx
+++ b/lab07/1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="325">
   <si>
     <t>IPv4</t>
   </si>
@@ -761,9 +761,6 @@
     <t>fe80::19</t>
   </si>
   <si>
-    <t>2001:ABCD:0010:1419::15/64</t>
-  </si>
-  <si>
     <t>10.11.10.20/23</t>
   </si>
   <si>
@@ -990,6 +987,12 @@
   </si>
   <si>
     <t>200.30.30.36/27</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1419::19/64</t>
+  </si>
+  <si>
+    <t>2001:ABCD:0010:1520::20/64</t>
   </si>
 </sst>
 </file>
@@ -2044,15 +2047,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2077,55 +2071,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3855,8 +3858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3871,19 +3874,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
+      <c r="A1" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="89"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
@@ -3912,7 +3915,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="9" t="s">
         <v>137</v>
       </c>
@@ -3925,14 +3928,14 @@
       <c r="E4" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
+      <c r="I4" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="9" t="s">
         <v>133</v>
       </c>
@@ -3945,9 +3948,9 @@
       <c r="E5" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="95"/>
@@ -3963,12 +3966,12 @@
       <c r="E6" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="89" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3985,7 +3988,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="25" t="s">
         <v>137</v>
       </c>
@@ -4000,7 +4003,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="9" t="s">
         <v>133</v>
       </c>
@@ -4030,7 +4033,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="92" t="s">
         <v>136</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4045,16 +4048,16 @@
       <c r="E11" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="79" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="81"/>
+      <c r="H11" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="9" t="s">
         <v>137</v>
       </c>
@@ -4067,24 +4070,24 @@
       <c r="E12" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="82" t="s">
-        <v>270</v>
+      <c r="H12" s="80" t="s">
+        <v>269</v>
       </c>
       <c r="I12" s="49" t="s">
         <v>132</v>
       </c>
       <c r="J12" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="9" t="s">
         <v>133</v>
       </c>
@@ -4097,57 +4100,57 @@
       <c r="E13" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="83"/>
+      <c r="H13" s="81"/>
       <c r="I13" s="45" t="s">
         <v>137</v>
       </c>
       <c r="J13" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="L13" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="K13" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="75" t="s">
+      <c r="A14" s="93"/>
+      <c r="B14" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="51" t="s">
         <v>133</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="76"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="73"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="92" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -4162,16 +4165,16 @@
       <c r="E16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="79" t="s">
-        <v>274</v>
-      </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="81"/>
+      <c r="H16" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="9" t="s">
         <v>137</v>
       </c>
@@ -4184,24 +4187,24 @@
       <c r="E17" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H17" s="85" t="s">
-        <v>265</v>
+      <c r="H17" s="83" t="s">
+        <v>264</v>
       </c>
       <c r="I17" s="56" t="s">
         <v>132</v>
       </c>
       <c r="J17" s="59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="9" t="s">
         <v>133</v>
       </c>
@@ -4214,22 +4217,22 @@
       <c r="E18" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H18" s="85"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="45" t="s">
         <v>137</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L18" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="76"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="53" t="s">
         <v>134</v>
       </c>
@@ -4242,18 +4245,18 @@
       <c r="E19" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="86"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="45" t="s">
         <v>133</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K19" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4267,7 +4270,7 @@
         <v>245</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>246</v>
@@ -4281,21 +4284,21 @@
         <v>132</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H21" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
+      <c r="H21" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -4306,23 +4309,23 @@
         <v>223</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E22" s="56"/>
-      <c r="H22" s="66" t="s">
-        <v>285</v>
+      <c r="H22" s="85" t="s">
+        <v>284</v>
       </c>
       <c r="I22" s="49" t="s">
         <v>132</v>
       </c>
       <c r="J22" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="K22" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="K22" s="47" t="s">
-        <v>294</v>
-      </c>
       <c r="L22" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4334,21 +4337,21 @@
         <v>224</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" s="44"/>
-      <c r="H23" s="67"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="45" t="s">
         <v>137</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L23" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4360,21 +4363,21 @@
         <v>225</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E24" s="44"/>
-      <c r="H24" s="68"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="51" t="s">
         <v>133</v>
       </c>
       <c r="J24" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K24" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L24" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4386,23 +4389,23 @@
         <v>226</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" s="44"/>
-      <c r="H25" s="66" t="s">
-        <v>286</v>
+      <c r="H25" s="85" t="s">
+        <v>285</v>
       </c>
       <c r="I25" s="49" t="s">
         <v>132</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L25" s="50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4417,18 +4420,18 @@
         <v>227</v>
       </c>
       <c r="E26" s="44"/>
-      <c r="H26" s="67"/>
+      <c r="H26" s="86"/>
       <c r="I26" s="58" t="s">
         <v>137</v>
       </c>
       <c r="J26" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K26" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4443,79 +4446,79 @@
         <v>228</v>
       </c>
       <c r="E27" s="44"/>
-      <c r="H27" s="67"/>
+      <c r="H27" s="86"/>
       <c r="I27" s="44" t="s">
         <v>133</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K27" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L27" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="68"/>
+      <c r="H28" s="87"/>
       <c r="I28" s="47" t="s">
         <v>134</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K28" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L28" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="66" t="s">
-        <v>287</v>
+      <c r="H29" s="85" t="s">
+        <v>286</v>
       </c>
       <c r="I29" s="49" t="s">
         <v>132</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L29" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" s="97"/>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
       <c r="E30" s="98"/>
-      <c r="H30" s="67"/>
+      <c r="H30" s="86"/>
       <c r="I30" s="58" t="s">
         <v>137</v>
       </c>
       <c r="J30" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K30" s="60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L30" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="93"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="44" t="s">
         <v>0</v>
       </c>
@@ -4525,22 +4528,22 @@
       <c r="E31" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="H31" s="67"/>
+      <c r="H31" s="86"/>
       <c r="I31" s="44" t="s">
         <v>133</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L31" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="86" t="s">
         <v>178</v>
       </c>
       <c r="B32" s="44" t="s">
@@ -4555,22 +4558,22 @@
       <c r="E32" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="90"/>
+      <c r="H32" s="88"/>
       <c r="I32" s="62" t="s">
         <v>134</v>
       </c>
       <c r="J32" s="62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K32" s="62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L32" s="63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="44" t="s">
         <v>137</v>
       </c>
@@ -4583,24 +4586,24 @@
       <c r="E33" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="66" t="s">
-        <v>288</v>
+      <c r="H33" s="85" t="s">
+        <v>287</v>
       </c>
       <c r="I33" s="49" t="s">
         <v>132</v>
       </c>
       <c r="J33" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K33" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L33" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="45" t="s">
         <v>133</v>
       </c>
@@ -4613,22 +4616,22 @@
       <c r="E34" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="67"/>
+      <c r="H34" s="86"/>
       <c r="I34" s="58" t="s">
         <v>137</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K34" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L34" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="47" t="s">
         <v>134</v>
       </c>
@@ -4641,22 +4644,22 @@
       <c r="E35" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="67"/>
+      <c r="H35" s="86"/>
       <c r="I35" s="44" t="s">
         <v>133</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K35" s="62" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L35" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="85" t="s">
         <v>179</v>
       </c>
       <c r="B36" s="49" t="s">
@@ -4671,22 +4674,22 @@
       <c r="E36" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="H36" s="68"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="47" t="s">
         <v>134</v>
       </c>
       <c r="J36" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K36" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L36" s="61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="44" t="s">
         <v>137</v>
       </c>
@@ -4701,7 +4704,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="68"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="47" t="s">
         <v>133</v>
       </c>
@@ -4716,7 +4719,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="92" t="s">
         <v>180</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -4733,7 +4736,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="78"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="17" t="s">
         <v>137</v>
       </c>
@@ -4748,7 +4751,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="17" t="s">
         <v>133</v>
       </c>
@@ -4763,7 +4766,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="76"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="14" t="s">
         <v>134</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>231</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E44" s="44"/>
     </row>
@@ -4816,7 +4819,7 @@
         <v>232</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E45" s="44"/>
     </row>
@@ -4847,13 +4850,13 @@
       <c r="E47" s="44"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="91" t="s">
-        <v>277</v>
-      </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="93"/>
+      <c r="A50" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="91"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
@@ -4863,7 +4866,7 @@
         <v>132</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D51" s="44" t="s">
         <v>220</v>
@@ -4878,7 +4881,7 @@
         <v>137</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D52" s="44" t="s">
         <v>221</v>
@@ -4911,7 +4914,7 @@
         <v>215</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E54" s="44"/>
     </row>
@@ -4934,7 +4937,7 @@
       </c>
       <c r="B56" s="44"/>
       <c r="C56" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>241</v>
@@ -4949,13 +4952,13 @@
       <c r="E57" s="52"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="93"/>
+      <c r="A58" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="91"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
@@ -4965,10 +4968,10 @@
         <v>132</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E59" s="44" t="s">
         <v>242</v>
@@ -4976,7 +4979,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A50:E50"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -4990,19 +4992,20 @@
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:H19"/>
     <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="A50:E50"/>
     <mergeCell ref="I4:K6"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/lab07/1.xlsx
+++ b/lab07/1.xlsx
@@ -908,9 +908,6 @@
     <t>2001:ABCD:0070:2324::23/64</t>
   </si>
   <si>
-    <t>100.10.10.202/27</t>
-  </si>
-  <si>
     <t>2001:ABCD:0060:2124::24/64</t>
   </si>
   <si>
@@ -938,9 +935,6 @@
     <t>2001:ABCD:0030:2528::25/64</t>
   </si>
   <si>
-    <t>100.10.10.205/27</t>
-  </si>
-  <si>
     <t>2001:ABCD:0030:2628::26/64</t>
   </si>
   <si>
@@ -993,6 +987,12 @@
   </si>
   <si>
     <t>2001:ABCD:0010:1520::20/64</t>
+  </si>
+  <si>
+    <t>200.20.20.24/27</t>
+  </si>
+  <si>
+    <t>200.20.20.26/27</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2044,7 +2044,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2065,21 +2122,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2104,49 +2146,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3858,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,19 +3877,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
@@ -3898,7 +3901,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="74" t="s">
         <v>131</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -3915,7 +3918,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="9" t="s">
         <v>137</v>
       </c>
@@ -3928,14 +3931,14 @@
       <c r="E4" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="66" t="s">
-        <v>311</v>
-      </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
+      <c r="I4" s="85" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="9" t="s">
         <v>133</v>
       </c>
@@ -3948,12 +3951,12 @@
       <c r="E5" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="11" t="s">
         <v>134</v>
       </c>
@@ -3966,12 +3969,12 @@
       <c r="E6" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="65" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3988,7 +3991,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="25" t="s">
         <v>137</v>
       </c>
@@ -4003,7 +4006,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="9" t="s">
         <v>133</v>
       </c>
@@ -4018,7 +4021,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="11" t="s">
         <v>134</v>
       </c>
@@ -4033,7 +4036,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="71" t="s">
         <v>136</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4048,16 +4051,16 @@
       <c r="E11" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="93"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="9" t="s">
         <v>137</v>
       </c>
@@ -4070,7 +4073,7 @@
       <c r="E12" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="94" t="s">
         <v>269</v>
       </c>
       <c r="I12" s="49" t="s">
@@ -4087,7 +4090,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="9" t="s">
         <v>133</v>
       </c>
@@ -4100,7 +4103,7 @@
       <c r="E13" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="81"/>
+      <c r="H13" s="95"/>
       <c r="I13" s="45" t="s">
         <v>137</v>
       </c>
@@ -4115,20 +4118,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="82"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="51" t="s">
         <v>133</v>
       </c>
@@ -4145,12 +4148,12 @@
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="69"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="73"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="71" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -4165,16 +4168,16 @@
       <c r="E16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="9" t="s">
         <v>137</v>
       </c>
@@ -4187,7 +4190,7 @@
       <c r="E17" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="97" t="s">
         <v>264</v>
       </c>
       <c r="I17" s="56" t="s">
@@ -4204,7 +4207,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="9" t="s">
         <v>133</v>
       </c>
@@ -4217,7 +4220,7 @@
       <c r="E18" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H18" s="83"/>
+      <c r="H18" s="97"/>
       <c r="I18" s="45" t="s">
         <v>137</v>
       </c>
@@ -4245,7 +4248,7 @@
       <c r="E19" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="84"/>
+      <c r="H19" s="98"/>
       <c r="I19" s="45" t="s">
         <v>133</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>245</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>246</v>
@@ -4287,18 +4290,18 @@
         <v>247</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="74" t="s">
+      <c r="H21" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="76"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -4312,7 +4315,7 @@
         <v>257</v>
       </c>
       <c r="E22" s="56"/>
-      <c r="H22" s="85" t="s">
+      <c r="H22" s="82" t="s">
         <v>284</v>
       </c>
       <c r="I22" s="49" t="s">
@@ -4340,12 +4343,12 @@
         <v>254</v>
       </c>
       <c r="E23" s="44"/>
-      <c r="H23" s="86"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="45" t="s">
         <v>137</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K23" s="47" t="s">
         <v>294</v>
@@ -4366,12 +4369,12 @@
         <v>255</v>
       </c>
       <c r="E24" s="44"/>
-      <c r="H24" s="87"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="51" t="s">
         <v>133</v>
       </c>
       <c r="J24" s="45" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K24" s="47" t="s">
         <v>295</v>
@@ -4392,17 +4395,17 @@
         <v>256</v>
       </c>
       <c r="E25" s="44"/>
-      <c r="H25" s="85" t="s">
+      <c r="H25" s="82" t="s">
         <v>285</v>
       </c>
       <c r="I25" s="49" t="s">
         <v>132</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L25" s="50" t="s">
         <v>289</v>
@@ -4420,15 +4423,15 @@
         <v>227</v>
       </c>
       <c r="E26" s="44"/>
-      <c r="H26" s="86"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="58" t="s">
         <v>137</v>
       </c>
       <c r="J26" s="45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K26" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L26" s="46" t="s">
         <v>289</v>
@@ -4446,79 +4449,79 @@
         <v>228</v>
       </c>
       <c r="E27" s="44"/>
-      <c r="H27" s="86"/>
+      <c r="H27" s="80"/>
       <c r="I27" s="44" t="s">
         <v>133</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K27" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L27" s="46" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="87"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="45" t="s">
-        <v>296</v>
+      <c r="J28" s="99" t="s">
+        <v>323</v>
       </c>
       <c r="K28" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L28" s="48" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="85" t="s">
+      <c r="H29" s="82" t="s">
         <v>286</v>
       </c>
       <c r="I29" s="49" t="s">
         <v>132</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L29" s="50" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="98"/>
-      <c r="H30" s="86"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="78"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="58" t="s">
         <v>137</v>
       </c>
       <c r="J30" s="44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K30" s="60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L30" s="46" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="91"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="44" t="s">
         <v>0</v>
       </c>
@@ -4528,22 +4531,22 @@
       <c r="E31" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="H31" s="86"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="44" t="s">
         <v>133</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L31" s="46" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="80" t="s">
         <v>178</v>
       </c>
       <c r="B32" s="44" t="s">
@@ -4558,22 +4561,22 @@
       <c r="E32" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="88"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="62" t="s">
         <v>134</v>
       </c>
       <c r="J32" s="62" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K32" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L32" s="63" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="44" t="s">
         <v>137</v>
       </c>
@@ -4586,24 +4589,24 @@
       <c r="E33" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="85" t="s">
+      <c r="H33" s="82" t="s">
         <v>287</v>
       </c>
       <c r="I33" s="49" t="s">
         <v>132</v>
       </c>
       <c r="J33" s="64" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K33" s="43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L33" s="50" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="45" t="s">
         <v>133</v>
       </c>
@@ -4616,22 +4619,22 @@
       <c r="E34" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="86"/>
+      <c r="H34" s="80"/>
       <c r="I34" s="58" t="s">
         <v>137</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K34" s="44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L34" s="46" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="47" t="s">
         <v>134</v>
       </c>
@@ -4644,22 +4647,22 @@
       <c r="E35" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="86"/>
+      <c r="H35" s="80"/>
       <c r="I35" s="44" t="s">
         <v>133</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K35" s="62" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L35" s="46" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="82" t="s">
         <v>179</v>
       </c>
       <c r="B36" s="49" t="s">
@@ -4674,22 +4677,22 @@
       <c r="E36" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="H36" s="87"/>
+      <c r="H36" s="81"/>
       <c r="I36" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="J36" s="65" t="s">
-        <v>306</v>
+      <c r="J36" s="100" t="s">
+        <v>324</v>
       </c>
       <c r="K36" s="47" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L36" s="61" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="44" t="s">
         <v>137</v>
       </c>
@@ -4704,7 +4707,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="47" t="s">
         <v>133</v>
       </c>
@@ -4719,7 +4722,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="71" t="s">
         <v>180</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -4736,7 +4739,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="93"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="17" t="s">
         <v>137</v>
       </c>
@@ -4751,7 +4754,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="93"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="17" t="s">
         <v>133</v>
       </c>
@@ -4850,13 +4853,13 @@
       <c r="E47" s="44"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="91"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
@@ -4952,13 +4955,13 @@
       <c r="E57" s="52"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="91"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
@@ -4979,6 +4982,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="I4:K6"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="A50:E50"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -4992,20 +5009,6 @@
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="I4:K6"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/lab07/1.xlsx
+++ b/lab07/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -2044,64 +2044,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2122,6 +2068,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2146,10 +2107,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2565,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,19 +3877,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
@@ -3901,7 +3901,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="95" t="s">
         <v>131</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -3918,7 +3918,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="9" t="s">
         <v>137</v>
       </c>
@@ -3931,14 +3931,14 @@
       <c r="E4" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="9" t="s">
         <v>133</v>
       </c>
@@ -3951,12 +3951,12 @@
       <c r="E5" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="11" t="s">
         <v>134</v>
       </c>
@@ -3969,12 +3969,12 @@
       <c r="E6" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="90" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3991,7 +3991,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="25" t="s">
         <v>137</v>
       </c>
@@ -4006,7 +4006,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="9" t="s">
         <v>133</v>
       </c>
@@ -4021,7 +4021,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="11" t="s">
         <v>134</v>
       </c>
@@ -4036,7 +4036,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="93" t="s">
         <v>136</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -4051,16 +4051,16 @@
       <c r="E11" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="91" t="s">
+      <c r="H11" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="9" t="s">
         <v>137</v>
       </c>
@@ -4073,7 +4073,7 @@
       <c r="E12" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="81" t="s">
         <v>269</v>
       </c>
       <c r="I12" s="49" t="s">
@@ -4090,7 +4090,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="9" t="s">
         <v>133</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="E13" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="95"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="45" t="s">
         <v>137</v>
       </c>
@@ -4118,20 +4118,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="83" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="96"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="51" t="s">
         <v>133</v>
       </c>
@@ -4146,14 +4146,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="73"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="93" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -4168,16 +4168,16 @@
       <c r="E16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="93"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="9" t="s">
         <v>137</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="E17" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H17" s="97" t="s">
+      <c r="H17" s="84" t="s">
         <v>264</v>
       </c>
       <c r="I17" s="56" t="s">
@@ -4207,7 +4207,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="9" t="s">
         <v>133</v>
       </c>
@@ -4220,7 +4220,7 @@
       <c r="E18" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H18" s="97"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="45" t="s">
         <v>137</v>
       </c>
@@ -4235,7 +4235,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="53" t="s">
         <v>134</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="E19" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="98"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="45" t="s">
         <v>133</v>
       </c>
@@ -4295,13 +4295,13 @@
       <c r="E21" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="70"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="77"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -4315,7 +4315,7 @@
         <v>257</v>
       </c>
       <c r="E22" s="56"/>
-      <c r="H22" s="82" t="s">
+      <c r="H22" s="86" t="s">
         <v>284</v>
       </c>
       <c r="I22" s="49" t="s">
@@ -4343,7 +4343,7 @@
         <v>254</v>
       </c>
       <c r="E23" s="44"/>
-      <c r="H23" s="80"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="45" t="s">
         <v>137</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>255</v>
       </c>
       <c r="E24" s="44"/>
-      <c r="H24" s="81"/>
+      <c r="H24" s="88"/>
       <c r="I24" s="51" t="s">
         <v>133</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>256</v>
       </c>
       <c r="E25" s="44"/>
-      <c r="H25" s="82" t="s">
+      <c r="H25" s="86" t="s">
         <v>285</v>
       </c>
       <c r="I25" s="49" t="s">
@@ -4423,7 +4423,7 @@
         <v>227</v>
       </c>
       <c r="E26" s="44"/>
-      <c r="H26" s="80"/>
+      <c r="H26" s="87"/>
       <c r="I26" s="58" t="s">
         <v>137</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>228</v>
       </c>
       <c r="E27" s="44"/>
-      <c r="H27" s="80"/>
+      <c r="H27" s="87"/>
       <c r="I27" s="44" t="s">
         <v>133</v>
       </c>
@@ -4464,11 +4464,11 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="81"/>
+      <c r="H28" s="88"/>
       <c r="I28" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="99" t="s">
+      <c r="J28" s="65" t="s">
         <v>323</v>
       </c>
       <c r="K28" s="47" t="s">
@@ -4479,7 +4479,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="82" t="s">
+      <c r="H29" s="86" t="s">
         <v>286</v>
       </c>
       <c r="I29" s="49" t="s">
@@ -4496,14 +4496,14 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="H30" s="80"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
+      <c r="H30" s="87"/>
       <c r="I30" s="58" t="s">
         <v>137</v>
       </c>
@@ -4518,10 +4518,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="67"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="44" t="s">
         <v>0</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="E31" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="H31" s="80"/>
+      <c r="H31" s="87"/>
       <c r="I31" s="44" t="s">
         <v>133</v>
       </c>
@@ -4546,7 +4546,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="87" t="s">
         <v>178</v>
       </c>
       <c r="B32" s="44" t="s">
@@ -4561,7 +4561,7 @@
       <c r="E32" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="84"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="62" t="s">
         <v>134</v>
       </c>
@@ -4576,7 +4576,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="80"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="44" t="s">
         <v>137</v>
       </c>
@@ -4589,7 +4589,7 @@
       <c r="E33" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="82" t="s">
+      <c r="H33" s="86" t="s">
         <v>287</v>
       </c>
       <c r="I33" s="49" t="s">
@@ -4606,7 +4606,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="45" t="s">
         <v>133</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="E34" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="80"/>
+      <c r="H34" s="87"/>
       <c r="I34" s="58" t="s">
         <v>137</v>
       </c>
@@ -4634,7 +4634,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="47" t="s">
         <v>134</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="E35" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="80"/>
+      <c r="H35" s="87"/>
       <c r="I35" s="44" t="s">
         <v>133</v>
       </c>
@@ -4662,7 +4662,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="86" t="s">
         <v>179</v>
       </c>
       <c r="B36" s="49" t="s">
@@ -4677,11 +4677,11 @@
       <c r="E36" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="H36" s="81"/>
+      <c r="H36" s="88"/>
       <c r="I36" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="J36" s="100" t="s">
+      <c r="J36" s="66" t="s">
         <v>324</v>
       </c>
       <c r="K36" s="47" t="s">
@@ -4692,7 +4692,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
+      <c r="A37" s="87"/>
       <c r="B37" s="44" t="s">
         <v>137</v>
       </c>
@@ -4707,7 +4707,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="81"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="47" t="s">
         <v>133</v>
       </c>
@@ -4722,7 +4722,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="93" t="s">
         <v>180</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -4739,7 +4739,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="72"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="17" t="s">
         <v>137</v>
       </c>
@@ -4754,7 +4754,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
+      <c r="A41" s="94"/>
       <c r="B41" s="17" t="s">
         <v>133</v>
       </c>
@@ -4769,7 +4769,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="73"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="14" t="s">
         <v>134</v>
       </c>
@@ -4853,13 +4853,13 @@
       <c r="E47" s="44"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="92"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
@@ -4955,13 +4955,13 @@
       <c r="E57" s="52"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="67"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="92"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
@@ -4982,20 +4982,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I4:K6"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="A50:E50"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -5009,6 +4995,20 @@
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="I4:K6"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
